--- a/shor.xlsx
+++ b/shor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t xml:space="preserve">MOD</t>
   </si>
@@ -64,13 +64,22 @@
     <t xml:space="preserve">找到最大周期数r</t>
   </si>
   <si>
+    <t xml:space="preserve">寻找r就是量子计算的核心</t>
+  </si>
+  <si>
     <t xml:space="preserve">余数</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
-    <t xml:space="preserve">指数大于1，选取余数为1的指数，就是r的取值</t>
+    <t xml:space="preserve">利用量子并行计算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">然后再用傅里叶变换提取出r的值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指数大于1，选取余数为1的指数，就是r的取值，r=4</t>
   </si>
   <si>
     <t xml:space="preserve">第三步</t>
@@ -117,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
@@ -144,11 +153,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -206,7 +210,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,7 +223,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,23 +231,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,7 +369,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.26"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -394,13 +382,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -419,14 +407,14 @@
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">GCD(F2,G2)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -445,14 +433,14 @@
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">GCD(F3,G3)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -471,14 +459,14 @@
       <c r="D4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">GCD(F4,G4)</f>
         <v>3</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -497,14 +485,14 @@
       <c r="D5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">GCD(F5,G5)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -523,14 +511,14 @@
       <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">GCD(F6,G6)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -549,14 +537,14 @@
       <c r="D7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">GCD(F7,G7)</f>
         <v>3</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -575,14 +563,14 @@
       <c r="D8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">GCD(F8,G8)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -601,14 +589,14 @@
       <c r="D9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">GCD(F9,G9)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -627,14 +615,14 @@
       <c r="D10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">GCD(F10,G10)</f>
         <v>3</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -653,14 +641,14 @@
       <c r="D11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">GCD(F11,G11)</f>
         <v>5</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -679,14 +667,14 @@
       <c r="D12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <f aca="false">GCD(F12,G12)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -705,14 +693,14 @@
       <c r="D13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <f aca="false">GCD(F13,G13)</f>
         <v>3</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -731,14 +719,14 @@
       <c r="D14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <f aca="false">GCD(F14,G14)</f>
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -757,14 +745,14 @@
       <c r="D15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <f aca="false">GCD(F15,G15)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -783,14 +771,14 @@
       <c r="D16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <f aca="false">GCD(F16,G16)</f>
         <v>15</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="F16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -810,99 +798,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">GCD(B3,C3)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">GCD(B4,C4)</f>
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">GCD(B5,C5)</f>
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">GCD(B6,C6)</f>
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">GCD(B7,C7)</f>
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">GCD(B8,C8)</f>
         <v>3</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -911,125 +899,128 @@
         <f aca="false">GCD(B9,C9)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">GCD(B10,C10)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false">GCD(B11,C11)</f>
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false">GCD(B12,C12)</f>
         <v>5</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false">GCD(B13,C13)</f>
         <v>1</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <f aca="false">GCD(B14,C14)</f>
         <v>3</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false">GCD(B15,C15)</f>
         <v>1</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false">GCD(B16,C16)</f>
         <v>1</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <f aca="false">GCD(B17,C17)</f>
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>12</v>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -1040,8 +1031,11 @@
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>14</v>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,8 +1053,11 @@
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>7</v>
+      <c r="E22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,7 +1075,7 @@
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1097,7 +1094,7 @@
       <c r="D24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1116,7 +1113,7 @@
       <c r="D25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1132,10 +1129,10 @@
       <c r="C26" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1154,7 +1151,7 @@
       <c r="D27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1173,7 +1170,7 @@
       <c r="D28" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1192,7 +1189,7 @@
       <c r="D29" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1211,7 +1208,7 @@
       <c r="D30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1230,7 +1227,7 @@
       <c r="D31" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1249,7 +1246,7 @@
       <c r="D32" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1268,7 +1265,7 @@
       <c r="D33" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1287,7 +1284,7 @@
       <c r="D34" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1306,7 +1303,7 @@
       <c r="D35" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1325,73 +1322,73 @@
       <c r="D36" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>15</v>
+      <c r="E36" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>16</v>
+      <c r="A39" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>18</v>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="6" t="n">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="4" t="n">
         <f aca="false">GCD((C41^(E41/2))-1,D41)</f>
         <v>3</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="C41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="6" t="n">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="4" t="n">
         <f aca="false">GCD((C42^(E42/2))+1,D42)</f>
         <v>5</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="C42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>21</v>
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1412,157 +1409,157 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>22</v>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">GCD(B3,C3)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">GCD(B4,C4)</f>
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">GCD(B5,C5)</f>
         <v>1</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">GCD(B6,C6)</f>
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">GCD(B7,C7)</f>
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <f aca="false">GCD(B8,C8)</f>
         <v>1</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="1" t="n">
         <f aca="false">GCD(B9,C9)</f>
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <f aca="false">GCD(B10,C10)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <f aca="false">GCD(B11,C11)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <f aca="false">GCD(B12,C12)</f>
         <v>1</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <f aca="false">GCD(B13,C13)</f>
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>143</v>
       </c>
     </row>
@@ -1571,65 +1568,65 @@
         <f aca="false">GCD(B14,C14)</f>
         <v>1</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <f aca="false">GCD(B15,C15)</f>
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <f aca="false">GCD(B16,C16)</f>
         <v>1</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <f aca="false">GCD(B17,C17)</f>
         <v>1</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -1640,8 +1637,8 @@
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>14</v>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,7 +1656,7 @@
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1678,12 +1675,12 @@
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="5" t="n">
         <f aca="false">MOD(B24,C24)</f>
         <v>1</v>
       </c>
@@ -1697,7 +1694,7 @@
       <c r="D24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1716,7 +1713,7 @@
       <c r="D25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1732,10 +1729,10 @@
       <c r="C26" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1754,7 +1751,7 @@
       <c r="D27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1773,7 +1770,7 @@
       <c r="D28" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1792,7 +1789,7 @@
       <c r="D29" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1811,7 +1808,7 @@
       <c r="D30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1830,7 +1827,7 @@
       <c r="D31" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1849,7 +1846,7 @@
       <c r="D32" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1868,7 +1865,7 @@
       <c r="D33" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1887,7 +1884,7 @@
       <c r="D34" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1906,7 +1903,7 @@
       <c r="D35" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1925,73 +1922,73 @@
       <c r="D36" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>24</v>
+      <c r="E36" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>16</v>
+      <c r="A39" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>18</v>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="6" t="n">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="4" t="n">
         <f aca="false">GCD((C41^(E41/2))-1,D41)</f>
         <v>11</v>
       </c>
-      <c r="C41" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="E41" s="0" t="n">
+      <c r="C41" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="E41" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="6" t="n">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="4" t="n">
         <f aca="false">GCD((C42^(E42/2))+1,D42)</f>
         <v>13</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="C42" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>25</v>
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2019,16 +2016,16 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -2039,8 +2036,8 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2058,7 +2055,7 @@
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2077,12 +2074,12 @@
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="5" t="n">
         <f aca="false">MOD(B6,C6)</f>
         <v>25</v>
       </c>
@@ -2096,7 +2093,7 @@
       <c r="D6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2115,7 +2112,7 @@
       <c r="D7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2131,10 +2128,10 @@
       <c r="C8" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2153,7 +2150,7 @@
       <c r="D9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2172,7 +2169,7 @@
       <c r="D10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2191,7 +2188,7 @@
       <c r="D11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2210,7 +2207,7 @@
       <c r="D12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2229,7 +2226,7 @@
       <c r="D13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2248,7 +2245,7 @@
       <c r="D14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2267,7 +2264,7 @@
       <c r="D15" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2286,7 +2283,7 @@
       <c r="D16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2305,7 +2302,7 @@
       <c r="D17" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2324,7 +2321,7 @@
       <c r="D18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2343,7 +2340,7 @@
       <c r="D19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2362,12 +2359,12 @@
       <c r="D20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="5" t="n">
         <f aca="false">MOD(B21,C21)</f>
         <v>135</v>
       </c>
@@ -2381,7 +2378,7 @@
       <c r="D21" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2400,7 +2397,7 @@
       <c r="D22" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2416,10 +2413,10 @@
       <c r="C23" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2438,7 +2435,7 @@
       <c r="D24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2457,7 +2454,7 @@
       <c r="D25" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2476,7 +2473,7 @@
       <c r="D26" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2495,7 +2492,7 @@
       <c r="D27" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2514,7 +2511,7 @@
       <c r="D28" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2533,7 +2530,7 @@
       <c r="D29" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2552,7 +2549,7 @@
       <c r="D30" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2571,7 +2568,7 @@
       <c r="D31" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2590,12 +2587,12 @@
       <c r="D32" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="5" t="n">
         <f aca="false">MOD(B33,C33)</f>
         <v>0</v>
       </c>
@@ -2609,7 +2606,7 @@
       <c r="D33" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2628,7 +2625,7 @@
       <c r="D34" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2644,10 +2641,10 @@
       <c r="C35" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="D35" s="9" t="n">
+      <c r="D35" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2666,7 +2663,7 @@
       <c r="D36" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2685,7 +2682,7 @@
       <c r="D37" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2704,7 +2701,7 @@
       <c r="D38" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2723,7 +2720,7 @@
       <c r="D39" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2742,7 +2739,7 @@
       <c r="D40" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2761,12 +2758,12 @@
       <c r="D41" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="5" t="n">
         <f aca="false">MOD(B42,C42)</f>
         <v>0</v>
       </c>
@@ -2780,7 +2777,7 @@
       <c r="D42" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2799,7 +2796,7 @@
       <c r="D43" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2815,10 +2812,10 @@
       <c r="C44" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="D44" s="9" t="n">
+      <c r="D44" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2837,7 +2834,7 @@
       <c r="D45" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2856,7 +2853,7 @@
       <c r="D46" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2875,7 +2872,7 @@
       <c r="D47" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2894,7 +2891,7 @@
       <c r="D48" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2913,7 +2910,7 @@
       <c r="D49" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2932,7 +2929,7 @@
       <c r="D50" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2951,7 +2948,7 @@
       <c r="D51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2970,7 +2967,7 @@
       <c r="D52" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2989,7 +2986,7 @@
       <c r="D53" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3008,7 +3005,7 @@
       <c r="D54" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3027,7 +3024,7 @@
       <c r="D55" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3046,12 +3043,12 @@
       <c r="D56" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="5" t="n">
         <f aca="false">MOD(B57,C57)</f>
         <v>0</v>
       </c>
@@ -3065,7 +3062,7 @@
       <c r="D57" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3084,7 +3081,7 @@
       <c r="D58" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3100,10 +3097,10 @@
       <c r="C59" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="D59" s="9" t="n">
+      <c r="D59" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3122,7 +3119,7 @@
       <c r="D60" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3141,7 +3138,7 @@
       <c r="D61" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3160,7 +3157,7 @@
       <c r="D62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3179,7 +3176,7 @@
       <c r="D63" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3198,7 +3195,7 @@
       <c r="D64" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3217,7 +3214,7 @@
       <c r="D65" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3236,221 +3233,220 @@
       <c r="D66" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>16</v>
+      <c r="A69" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>18</v>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B71" s="6" t="n">
+      <c r="A71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="4" t="n">
         <f aca="false">GCD((C71^(E71/2))-1,D71)</f>
         <v>11</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="E71" s="0" t="n">
+      <c r="C71" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="E71" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" s="6" t="n">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="4" t="n">
         <f aca="false">GCD((C72^(E72/2))+1,D72)</f>
         <v>13</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D72" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="E72" s="0" t="n">
+      <c r="C72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="E72" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <f aca="false">GCD(B77,C77)</f>
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <f aca="false">GCD(B78,C78)</f>
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <f aca="false">GCD(B79,C79)</f>
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <f aca="false">GCD(B80,C80)</f>
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C80" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <f aca="false">GCD(B81,C81)</f>
+        <v>1</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <f aca="false">GCD(B82,C82)</f>
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <f aca="false">GCD(B83,C83)</f>
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <f aca="false">GCD(B84,C84)</f>
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <f aca="false">GCD(B77,C77)</f>
-        <v>1</v>
-      </c>
-      <c r="B77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <f aca="false">GCD(B78,C78)</f>
-        <v>1</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <f aca="false">GCD(B79,C79)</f>
-        <v>1</v>
-      </c>
-      <c r="B79" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <f aca="false">GCD(B80,C80)</f>
-        <v>1</v>
-      </c>
-      <c r="B80" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <f aca="false">GCD(B81,C81)</f>
-        <v>1</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <f aca="false">GCD(B82,C82)</f>
-        <v>1</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="n">
-        <f aca="false">GCD(B83,C83)</f>
-        <v>1</v>
-      </c>
-      <c r="B83" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <f aca="false">GCD(B84,C84)</f>
-        <v>1</v>
-      </c>
-      <c r="B84" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+      <c r="A85" s="1" t="n">
         <f aca="false">GCD(B85,C85)</f>
         <v>1</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+      <c r="A86" s="1" t="n">
         <f aca="false">GCD(B86,C86)</f>
         <v>1</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+      <c r="A87" s="1" t="n">
         <f aca="false">GCD(B87,C87)</f>
         <v>11</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>143</v>
       </c>
     </row>
@@ -3459,52 +3455,52 @@
         <f aca="false">GCD(B88,C88)</f>
         <v>1</v>
       </c>
-      <c r="B88" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C88" s="0" t="n">
+      <c r="B88" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C88" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="A89" s="1" t="n">
         <f aca="false">GCD(B89,C89)</f>
         <v>13</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="A90" s="1" t="n">
         <f aca="false">GCD(B90,C90)</f>
         <v>1</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="A91" s="1" t="n">
         <f aca="false">GCD(B91,C91)</f>
         <v>1</v>
       </c>
-      <c r="B91" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C91" s="0" t="n">
+      <c r="B91" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1" t="n">
         <v>143</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>27</v>
+      <c r="A92" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
